--- a/biology/Médecine/1561_en_santé_et_médecine/1561_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1561_en_santé_et_médecine/1561_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1561_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1561_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1561 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1561_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1561_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Valerius Cordus (1515-1544), Annotationes in Pedacii Dioscoridis de Materia medica libros V, imprimées à Strasbourg chez Josias Rihel[1].
-Gabriel Fallope (c.1523-1562), Observationes anatomicae, à Venise, chez Marcus Antonius Ulmus[2],[3].
-Guglielmo Gratarolo (1516-1568), Pestis descriptio, à Paris, chez Frédéric Morel[4], et Verae alchemiae artisque metallicae doctrina, à Bâle, chez Heinrich Petri et Pietro Perna[5].
-Ambroise Paré (1509 ou 1510-1590), La Méthode curative des plaies et fractures de la tête humaine[6] et Anatomie universelle du corps humain[7], l'une et l'autre à Paris, chez Jean Le Royer.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Valerius Cordus (1515-1544), Annotationes in Pedacii Dioscoridis de Materia medica libros V, imprimées à Strasbourg chez Josias Rihel.
+Gabriel Fallope (c.1523-1562), Observationes anatomicae, à Venise, chez Marcus Antonius Ulmus,.
+Guglielmo Gratarolo (1516-1568), Pestis descriptio, à Paris, chez Frédéric Morel, et Verae alchemiae artisque metallicae doctrina, à Bâle, chez Heinrich Petri et Pietro Perna.
+Ambroise Paré (1509 ou 1510-1590), La Méthode curative des plaies et fractures de la tête humaine et Anatomie universelle du corps humain, l'une et l'autre à Paris, chez Jean Le Royer.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1561_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1561_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6 janvier : Thomas Fincke (mort en 1656), mathématicien et médecin danois[8].
-29 mars : Santorio Santorio (mort en 1636), médecin et ingénieur italien[9].
-29 septembre : Adrien Romain (mort en 1615), médecin et mathématicien flamand[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6 janvier : Thomas Fincke (mort en 1656), mathématicien et médecin danois.
+29 mars : Santorio Santorio (mort en 1636), médecin et ingénieur italien.
+29 septembre : Adrien Romain (mort en 1615), médecin et mathématicien flamand.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1561_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1561_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>François Rasse l'ancien (né vers 1475), ), chirurgien d'origine belge, père de François Rasse des Neux (v. 1525-1587), installé à Paris au service des rois Henri II, François II et Charles IX[11],[12]).
-Benoît Victorius (né en 1481), médecin italien, professeur à Padoue et Bologne, auteur de divers ouvrages de médecine[13],[14].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>François Rasse l'ancien (né vers 1475), ), chirurgien d'origine belge, père de François Rasse des Neux (v. 1525-1587), installé à Paris au service des rois Henri II, François II et Charles IX,).
+Benoît Victorius (né en 1481), médecin italien, professeur à Padoue et Bologne, auteur de divers ouvrages de médecine,.</t>
         </is>
       </c>
     </row>
